--- a/assets/berkas/data.xlsx
+++ b/assets/berkas/data.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TugasAkhir\assets\berkas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEAFED0-F4FD-4FB3-85D3-34CE211C9358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F781EDF-AF40-4AA8-965D-1AE423F8BCF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pembimbing Utama" sheetId="1" r:id="rId1"/>
     <sheet name="Pembimbing Kedua" sheetId="2" r:id="rId2"/>
     <sheet name="NoGrup Kontak Dosen" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="437">
   <si>
     <t>Nama Lengkap</t>
   </si>
@@ -1339,12 +1340,610 @@
   <si>
     <t>Join MS Teams</t>
   </si>
+  <si>
+    <r>
+      <t>19910209</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>279</t>
+    </r>
+  </si>
+  <si>
+    <t>RPLSI</t>
+  </si>
+  <si>
+    <t>AIDE</t>
+  </si>
+  <si>
+    <t>KASPER</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>19910416</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>201903</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>19911127</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>007</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>19930314</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>201903</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>018</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>19890518</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>201903</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>011</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>19910525</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>19941127</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>202012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>018</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>19930727</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>022</t>
+    </r>
+  </si>
+  <si>
+    <t>198509212019031000</t>
+  </si>
+  <si>
+    <t>16117011202201976</t>
+  </si>
+  <si>
+    <t>1611700420220112</t>
+  </si>
+  <si>
+    <t>16117004202121</t>
+  </si>
+  <si>
+    <t>198602142019031000</t>
+  </si>
+  <si>
+    <t>dispen</t>
+  </si>
+  <si>
+    <t>tim</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1399,6 +1998,32 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1420,7 +2045,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1456,11 +2081,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1503,6 +2148,20 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1724,15 +2383,17 @@
   <dimension ref="A1:M185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -1769,7 +2430,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1799,6 +2463,12 @@
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E4" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -1813,6 +2483,9 @@
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E5" s="22" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -1841,6 +2514,10 @@
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -1869,6 +2546,9 @@
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="22" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -1925,6 +2605,9 @@
       <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="E13" s="22" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -1939,6 +2622,7 @@
       <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -1968,7 +2652,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
@@ -1982,7 +2666,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
@@ -1995,8 +2679,11 @@
       <c r="D18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
@@ -2010,7 +2697,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
@@ -2024,7 +2711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
@@ -2038,7 +2725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -2052,7 +2739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>56</v>
       </c>
@@ -2066,7 +2753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
@@ -2080,7 +2767,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>61</v>
       </c>
@@ -2094,7 +2781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>63</v>
       </c>
@@ -2107,8 +2794,14 @@
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>65</v>
       </c>
@@ -2122,7 +2815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>67</v>
       </c>
@@ -2135,8 +2828,11 @@
       <c r="D28" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F28" s="23" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>70</v>
       </c>
@@ -2150,7 +2846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>72</v>
       </c>
@@ -2164,7 +2860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>74</v>
       </c>
@@ -2178,7 +2874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>76</v>
       </c>
@@ -2191,8 +2887,14 @@
       <c r="D32" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>78</v>
       </c>
@@ -2206,7 +2908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>80</v>
       </c>
@@ -2220,7 +2922,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>82</v>
       </c>
@@ -2233,8 +2935,14 @@
       <c r="D35" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>84</v>
       </c>
@@ -2248,7 +2956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>86</v>
       </c>
@@ -2262,7 +2970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>88</v>
       </c>
@@ -2276,7 +2984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>90</v>
       </c>
@@ -2290,7 +2998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>92</v>
       </c>
@@ -2304,7 +3012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>94</v>
       </c>
@@ -2318,7 +3026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>96</v>
       </c>
@@ -2331,8 +3039,11 @@
       <c r="D42" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F42" s="23" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>98</v>
       </c>
@@ -2346,7 +3057,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>100</v>
       </c>
@@ -2360,7 +3071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>102</v>
       </c>
@@ -2374,7 +3085,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>104</v>
       </c>
@@ -2387,8 +3098,11 @@
       <c r="D46" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>106</v>
       </c>
@@ -2402,7 +3116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>108</v>
       </c>
@@ -2416,7 +3130,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>110</v>
       </c>
@@ -2430,7 +3144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>112</v>
       </c>
@@ -2444,7 +3158,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>114</v>
       </c>
@@ -2458,7 +3172,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>116</v>
       </c>
@@ -2471,8 +3185,11 @@
       <c r="D52" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F52" s="23" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>118</v>
       </c>
@@ -2485,8 +3202,11 @@
       <c r="D53" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>120</v>
       </c>
@@ -2500,7 +3220,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>122</v>
       </c>
@@ -2513,8 +3233,11 @@
       <c r="D55" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>124</v>
       </c>
@@ -2528,7 +3251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>126</v>
       </c>
@@ -2542,7 +3265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>128</v>
       </c>
@@ -2556,7 +3279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>130</v>
       </c>
@@ -2570,7 +3293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>132</v>
       </c>
@@ -2584,7 +3307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>134</v>
       </c>
@@ -2598,7 +3321,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>136</v>
       </c>
@@ -2612,7 +3335,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>138</v>
       </c>
@@ -2626,7 +3349,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>140</v>
       </c>
@@ -4346,11 +5069,11 @@
   </sheetPr>
   <dimension ref="A1:D285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D107" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D114" sqref="D114"/>
+      <selection pane="bottomRight" activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7800,4 +8523,168 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E08B57-CBBC-43CE-9D7E-8A53FA4B57B6}">
+  <dimension ref="A3:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>